--- a/data/trans_dic/P16-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5288173927865795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5505061140696617</v>
+        <v>0.5505061140696618</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5411323347921232</v>
@@ -685,7 +685,7 @@
         <v>0.5539733035128095</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5787484456776218</v>
+        <v>0.5787484456776217</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4695847795491405</v>
@@ -697,7 +697,7 @@
         <v>0.5400658846054568</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5637818360948056</v>
+        <v>0.5637818360948057</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3795192641558117</v>
+        <v>0.3728471621628305</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4428480610549653</v>
+        <v>0.4395190543508387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4783124948905301</v>
+        <v>0.4795764747153048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5074122746539272</v>
+        <v>0.49873841245985</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4872680451414669</v>
+        <v>0.4848031271095663</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5521462058628804</v>
+        <v>0.552089211252603</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4983152188205104</v>
+        <v>0.5013999187614633</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5358288881040899</v>
+        <v>0.5374451214059628</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4338692076353772</v>
+        <v>0.4377311538248195</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5023275632154837</v>
+        <v>0.5012255502660928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5031247648472347</v>
+        <v>0.50432965718056</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5335148808013287</v>
+        <v>0.5328699075867612</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4719011260173008</v>
+        <v>0.4708920302370949</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5433491530872823</v>
+        <v>0.5438319539591805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5754808851486614</v>
+        <v>0.5788163719498662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5980365579328231</v>
+        <v>0.5964959259954165</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6002606318030168</v>
+        <v>0.6000303761471408</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6656762395222455</v>
+        <v>0.6642715012646172</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6061833617058817</v>
+        <v>0.6062933605711488</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6152929819261191</v>
+        <v>0.6151444280795518</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5052775401912454</v>
+        <v>0.5060393693172038</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5811052030211504</v>
+        <v>0.5765625383955506</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5745289789424952</v>
+        <v>0.5746030757550722</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5913181047231393</v>
+        <v>0.5938432399676875</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.5315890822233502</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5570343862596543</v>
+        <v>0.5570343862596542</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3430151047757884</v>
+        <v>0.3461379061538481</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4387134385408917</v>
+        <v>0.4462449257660305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4477488122460521</v>
+        <v>0.4490628767369296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4892132274242999</v>
+        <v>0.4900257370221679</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4832329708981041</v>
+        <v>0.4841162855958639</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5822911128018797</v>
+        <v>0.5841506794739202</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5005732889997021</v>
+        <v>0.5129511937474277</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5329381324632043</v>
+        <v>0.5375263854623903</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4282621289561047</v>
+        <v>0.4285939152739492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5244442207515231</v>
+        <v>0.5226583951206791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4927661376940936</v>
+        <v>0.4955331349484799</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5227787539059872</v>
+        <v>0.5251528400313484</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.449373846503521</v>
+        <v>0.4503407031281767</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5494264373197211</v>
+        <v>0.5600297965440271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5550627702272098</v>
+        <v>0.5569173314847939</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5897599992464992</v>
+        <v>0.5879979836024052</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5855984046148035</v>
+        <v>0.5841402017965622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6917741950419443</v>
+        <v>0.6868236358383401</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.614887338974246</v>
+        <v>0.6127681998137621</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6185062593167601</v>
+        <v>0.6207388844664105</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5058307208083545</v>
+        <v>0.5055908194207392</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6005113410489981</v>
+        <v>0.6036888377852252</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5692631972582776</v>
+        <v>0.5699112660129627</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5875902296155188</v>
+        <v>0.5909760640594733</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5580094454044646</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5716719135693588</v>
+        <v>0.5716719135693586</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5400048791241804</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3651078477899196</v>
+        <v>0.3666813882973349</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5132340720259506</v>
+        <v>0.5188949139335907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.509886983944899</v>
+        <v>0.5100921109477157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5220141890133375</v>
+        <v>0.5317974668112136</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4604878147799524</v>
+        <v>0.4565042130217139</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6131624104251483</v>
+        <v>0.614270948696561</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6197212637985383</v>
+        <v>0.6236694244198676</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6688410168484311</v>
+        <v>0.6686787051121007</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4041686045909183</v>
+        <v>0.4020872690558014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5589595365787828</v>
+        <v>0.5548487407940662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5569820594819278</v>
+        <v>0.5542175457509826</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5747793768701457</v>
+        <v>0.5756997003729269</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4480633992238741</v>
+        <v>0.4487597435595477</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5992762359250783</v>
+        <v>0.5980050421825348</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6005551314489247</v>
+        <v>0.5991687885959767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6171875590233959</v>
+        <v>0.6239821418036186</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6089412728295602</v>
+        <v>0.6182750898111317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7340739693215158</v>
+        <v>0.7328232425451078</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7644408688662884</v>
+        <v>0.7680505547011691</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7752439481052181</v>
+        <v>0.7798785489932675</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4802029158237916</v>
+        <v>0.4774040224185022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.626177196052538</v>
+        <v>0.6229631983534941</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6302872419703573</v>
+        <v>0.6294396238821063</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.648875456187447</v>
+        <v>0.6531259880047792</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.546255281938347</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5857444784785807</v>
+        <v>0.5857444784785808</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4245997751606593</v>
+        <v>0.4232730051376982</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4972281096294072</v>
+        <v>0.4946005133026692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4880326660687527</v>
+        <v>0.4921911329577039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5211395009395279</v>
+        <v>0.5214560584460728</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.497652007675312</v>
+        <v>0.499470400509623</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6373441394301658</v>
+        <v>0.6382685057609137</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5483246414037952</v>
+        <v>0.5446633717002061</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5960218048724463</v>
+        <v>0.5984031430029494</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4617189567489047</v>
+        <v>0.4621713287409329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5607026027636404</v>
+        <v>0.5646298755235046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5236247088374361</v>
+        <v>0.5248052923769733</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5628362098929214</v>
+        <v>0.5602003785617429</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4800677271172768</v>
+        <v>0.4797525492601499</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5556663008381374</v>
+        <v>0.5589242291086087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5494228628970873</v>
+        <v>0.5504009181374807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5870862534538542</v>
+        <v>0.5868271073017556</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5738665174707769</v>
+        <v>0.5753940340831326</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7074318889006528</v>
+        <v>0.7079513383000482</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.618757357669155</v>
+        <v>0.6148410923383182</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6558214333982341</v>
+        <v>0.6575145669296818</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5068430142804902</v>
+        <v>0.5066157970947773</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6083261367841021</v>
+        <v>0.6101877731140078</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5699715314138802</v>
+        <v>0.5699371572739528</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6099153836347613</v>
+        <v>0.6081818165584097</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5031739884205825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5055386947941635</v>
+        <v>0.5055386947941634</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6170406048046038</v>
@@ -1241,7 +1241,7 @@
         <v>0.6217704262697585</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6179798385794598</v>
+        <v>0.6179798385794597</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3495513984253822</v>
+        <v>0.3577070356441168</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4609872433509729</v>
+        <v>0.4572728777735389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4649345559005543</v>
+        <v>0.4613604329547187</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4606730767339926</v>
+        <v>0.462976184718635</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5781871038710179</v>
+        <v>0.5740810392018008</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7203941514632092</v>
+        <v>0.7205808696157784</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6885706233513075</v>
+        <v>0.6864075614164663</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.665689627136982</v>
+        <v>0.6663222066527308</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4996249507172621</v>
+        <v>0.5042846665916099</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6293269696867942</v>
+        <v>0.6306573892327169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5961209491626532</v>
+        <v>0.5937694984902334</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5915919642879687</v>
+        <v>0.5950461850909012</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4583211637222367</v>
+        <v>0.4602854903674111</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5495566586864852</v>
+        <v>0.546055247111545</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5443645750406791</v>
+        <v>0.5485877842017802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5537990881411089</v>
+        <v>0.5562192318417929</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6599594731723769</v>
+        <v>0.6548222654377621</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7877126751596865</v>
+        <v>0.7878797661909793</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7544920108547976</v>
+        <v>0.7526931573814722</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7208212014275085</v>
+        <v>0.7215297431837241</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5679227754957739</v>
+        <v>0.5718225270015902</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6826910798615335</v>
+        <v>0.6834781483930097</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6488707607224065</v>
+        <v>0.6494571429631107</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6418332425923913</v>
+        <v>0.6456235749908503</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6984052716068396</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6221257759258465</v>
+        <v>0.6221257759258463</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5454935507294503</v>
@@ -1377,7 +1377,7 @@
         <v>0.6033368164313007</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.5414224658468293</v>
+        <v>0.5414224658468292</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1433900854404128</v>
+        <v>0.1432639123302779</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2490953651429079</v>
+        <v>0.2505404715632037</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1934991743924591</v>
+        <v>0.1950371345396546</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1804827002998078</v>
+        <v>0.1749582235968631</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6009954767036728</v>
+        <v>0.6041244959600276</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7061870698231074</v>
+        <v>0.7073110211847177</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6708096512450831</v>
+        <v>0.6728767873822108</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5842793716829925</v>
+        <v>0.5857665689658775</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5186621375763265</v>
+        <v>0.5195416627389027</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6245201702097812</v>
+        <v>0.6253513238874712</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5773088152385496</v>
+        <v>0.5755100382312793</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5077617199660879</v>
+        <v>0.5033630932676164</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2312347460454154</v>
+        <v>0.2295826518402908</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3585964304827963</v>
+        <v>0.3597930349139032</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3026801110274135</v>
+        <v>0.3017059007240498</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3468531686146607</v>
+        <v>0.348090199835965</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6565111237427717</v>
+        <v>0.6583748042883687</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7600418129706057</v>
+        <v>0.7608993215863586</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7260404885406874</v>
+        <v>0.7326883761159576</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6578547443152717</v>
+        <v>0.6583245254103257</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5696852831654307</v>
+        <v>0.5708835665089991</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6780227338571629</v>
+        <v>0.675998542065093</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6300165430783683</v>
+        <v>0.6326659909541905</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5791399163099809</v>
+        <v>0.5750734566980039</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.6478655064484664</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6344212577101719</v>
+        <v>0.6344212577101718</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4969443865988007</v>
@@ -1513,7 +1513,7 @@
         <v>0.5746765560541134</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5812328586974663</v>
+        <v>0.5812328586974662</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3880920602619935</v>
+        <v>0.3889177802431432</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4868523431150623</v>
+        <v>0.4863755285475986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4809248189236715</v>
+        <v>0.4809686703319061</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5073014065708088</v>
+        <v>0.5067969794471648</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5703379717726087</v>
+        <v>0.5684543456680835</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.685430213900717</v>
+        <v>0.6869896029623762</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6295171790764817</v>
+        <v>0.632110109932925</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6185999040070288</v>
+        <v>0.6194891189016173</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4845251504509124</v>
+        <v>0.4850752329132031</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5920831953714256</v>
+        <v>0.5935558551178662</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.562946724863159</v>
+        <v>0.5624035111952859</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5683217975125762</v>
+        <v>0.5695971348598331</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4221648312749082</v>
+        <v>0.422769453064848</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5216718486163791</v>
+        <v>0.5207281848995094</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.515393999922006</v>
+        <v>0.5160037285500534</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5441987592542121</v>
+        <v>0.5440030428632666</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6041182233960942</v>
+        <v>0.6040464990638813</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7174157246791794</v>
+        <v>0.7178190735493376</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.663951376333405</v>
+        <v>0.6638064744287013</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6484474000984382</v>
+        <v>0.6496400293875151</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5089809278772807</v>
+        <v>0.5098979954040126</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6167912218223405</v>
+        <v>0.6174031741445967</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5877877808886071</v>
+        <v>0.5868052079686054</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5924203394753027</v>
+        <v>0.5936346187207525</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>179807</v>
+        <v>176646</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>193618</v>
+        <v>192163</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205240</v>
+        <v>205782</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>279390</v>
+        <v>274614</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>149435</v>
+        <v>148679</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>173625</v>
+        <v>173607</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>172943</v>
+        <v>174013</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>261705</v>
+        <v>262494</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>338616</v>
+        <v>341630</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>377582</v>
+        <v>376754</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>390499</v>
+        <v>391434</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>554337</v>
+        <v>553667</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>223575</v>
+        <v>223097</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>237558</v>
+        <v>237769</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>246934</v>
+        <v>248365</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>329290</v>
+        <v>328441</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>184088</v>
+        <v>184017</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>209325</v>
+        <v>208883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>210379</v>
+        <v>210417</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>300516</v>
+        <v>300443</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>394347</v>
+        <v>394942</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>436796</v>
+        <v>433382</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>445919</v>
+        <v>445976</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>614397</v>
+        <v>617020</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>125864</v>
+        <v>127010</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>182951</v>
+        <v>186092</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>168903</v>
+        <v>169399</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>236394</v>
+        <v>236786</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>179697</v>
+        <v>180026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>196252</v>
+        <v>196879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>186350</v>
+        <v>190958</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>225509</v>
+        <v>227451</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>316400</v>
+        <v>316645</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>395458</v>
+        <v>394112</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>369328</v>
+        <v>371402</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>473823</v>
+        <v>475975</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>164891</v>
+        <v>165245</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>229121</v>
+        <v>233543</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>209385</v>
+        <v>210084</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>284979</v>
+        <v>284128</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>217764</v>
+        <v>217221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>233151</v>
+        <v>231483</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>228906</v>
+        <v>228117</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>261717</v>
+        <v>262661</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>373707</v>
+        <v>373530</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>452817</v>
+        <v>455213</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>426663</v>
+        <v>427148</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>532565</v>
+        <v>535634</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>198030</v>
+        <v>198884</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>322480</v>
+        <v>326037</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>266117</v>
+        <v>266224</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>246188</v>
+        <v>250802</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>77262</v>
+        <v>76593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>159501</v>
+        <v>159790</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>102950</v>
+        <v>103606</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>125406</v>
+        <v>125375</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>287029</v>
+        <v>285551</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>496613</v>
+        <v>492960</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>383224</v>
+        <v>381322</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>378842</v>
+        <v>379449</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>243025</v>
+        <v>243402</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>376543</v>
+        <v>375744</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>313438</v>
+        <v>312715</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>291073</v>
+        <v>294277</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102169</v>
+        <v>103735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>190954</v>
+        <v>190629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>126991</v>
+        <v>127591</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>145356</v>
+        <v>146225</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>341026</v>
+        <v>339038</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>556333</v>
+        <v>553477</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>433660</v>
+        <v>433077</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>427680</v>
+        <v>430481</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>525796</v>
+        <v>524153</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>575855</v>
+        <v>572812</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>561061</v>
+        <v>565842</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>589848</v>
+        <v>590206</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>355465</v>
+        <v>356764</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>488624</v>
+        <v>489333</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>452848</v>
+        <v>449824</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>513301</v>
+        <v>515351</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>901562</v>
+        <v>902445</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1079234</v>
+        <v>1086793</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1034428</v>
+        <v>1036760</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1121763</v>
+        <v>1116510</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>594484</v>
+        <v>594094</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>643534</v>
+        <v>647307</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>631637</v>
+        <v>632762</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>664489</v>
+        <v>664196</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>409904</v>
+        <v>410995</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>542358</v>
+        <v>542756</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>511017</v>
+        <v>507783</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>564801</v>
+        <v>566259</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>989672</v>
+        <v>989228</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1170899</v>
+        <v>1174482</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1125987</v>
+        <v>1125919</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1215594</v>
+        <v>1212139</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>122181</v>
+        <v>125032</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>235378</v>
+        <v>233482</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>288588</v>
+        <v>286369</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>261646</v>
+        <v>262954</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>328845</v>
+        <v>326510</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>547850</v>
+        <v>547992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>508333</v>
+        <v>506736</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>552607</v>
+        <v>553132</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>458800</v>
+        <v>463079</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>799927</v>
+        <v>801619</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>810099</v>
+        <v>806903</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>827099</v>
+        <v>831929</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>160200</v>
+        <v>160887</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>280601</v>
+        <v>278814</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>337890</v>
+        <v>340512</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>314538</v>
+        <v>315912</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>375353</v>
+        <v>372431</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>599045</v>
+        <v>599172</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>556999</v>
+        <v>555671</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>598373</v>
+        <v>598961</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>521517</v>
+        <v>525098</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>867758</v>
+        <v>868758</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>881783</v>
+        <v>882580</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>897341</v>
+        <v>902641</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>42759</v>
+        <v>42721</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>66220</v>
+        <v>66604</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>55562</v>
+        <v>56004</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>42816</v>
+        <v>41505</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>750499</v>
+        <v>754407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>782781</v>
+        <v>784027</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>725833</v>
+        <v>728070</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>492543</v>
+        <v>493797</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>802350</v>
+        <v>803710</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>858279</v>
+        <v>859422</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>790434</v>
+        <v>787971</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>548495</v>
+        <v>543743</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>68954</v>
+        <v>68462</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>95330</v>
+        <v>95648</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>86913</v>
+        <v>86633</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>82283</v>
+        <v>82577</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>819825</v>
+        <v>822152</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>842477</v>
+        <v>843427</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>785594</v>
+        <v>792787</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>554567</v>
+        <v>554963</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>881280</v>
+        <v>883134</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>931808</v>
+        <v>929026</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>862600</v>
+        <v>866227</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>625599</v>
+        <v>621206</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1268740</v>
+        <v>1271439</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1663635</v>
+        <v>1662006</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1628278</v>
+        <v>1628426</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1746373</v>
+        <v>1744636</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1926672</v>
+        <v>1920309</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2431375</v>
+        <v>2436906</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2223200</v>
+        <v>2232358</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2247610</v>
+        <v>2250841</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3220782</v>
+        <v>3224439</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4123474</v>
+        <v>4133730</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3894082</v>
+        <v>3890324</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>4021364</v>
+        <v>4030388</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1380129</v>
+        <v>1382106</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1782618</v>
+        <v>1779393</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1744981</v>
+        <v>1747045</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1873391</v>
+        <v>1872717</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2040786</v>
+        <v>2040544</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2544834</v>
+        <v>2546265</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2344808</v>
+        <v>2344296</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2356057</v>
+        <v>2360390</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3383347</v>
+        <v>3389443</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4295549</v>
+        <v>4299811</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>4065915</v>
+        <v>4059118</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>4191882</v>
+        <v>4200474</v>
       </c>
     </row>
     <row r="32">
